--- a/NewExcel.xlsx
+++ b/NewExcel.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>dkjfhsdk</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +353,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="4:4">
-      <c r="D2" t="s">
-        <v>0</v>
+      <c r="D2">
+        <v>3746283472638430</v>
       </c>
     </row>
   </sheetData>

--- a/NewExcel.xlsx
+++ b/NewExcel.xlsx
@@ -349,7 +349,7 @@
   <dimension ref="D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/NewExcel.xlsx
+++ b/NewExcel.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>dkjfhsdk</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +353,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="4:4">
-      <c r="D2" t="s">
-        <v>0</v>
+      <c r="D2">
+        <v>4958734934</v>
       </c>
     </row>
   </sheetData>

--- a/NewExcel.xlsx
+++ b/NewExcel.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D2"/>
+  <dimension ref="D2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -360,6 +356,101 @@
     <row r="2" spans="4:4">
       <c r="D2">
         <v>4958734934</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3">
+        <v>4958734935</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4">
+        <v>4958734936</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5">
+        <v>4958734937</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6">
+        <v>4958734938</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7">
+        <v>4958734939</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8">
+        <v>4958734940</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9">
+        <v>4958734941</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10">
+        <v>4958734942</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11">
+        <v>4958734943</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12">
+        <v>4958734944</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13">
+        <v>4958734945</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14">
+        <v>4958734946</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15">
+        <v>4958734947</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16">
+        <v>4958734948</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17">
+        <v>4958734949</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18">
+        <v>4958734950</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19">
+        <v>4958734951</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20">
+        <v>4958734952</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21">
+        <v>4958734953</v>
       </c>
     </row>
   </sheetData>
